--- a/Function Points Calculation/TimeSpentUC.xlsx
+++ b/Function Points Calculation/TimeSpentUC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\WaterMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\WaterMe\Function Points Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>UC</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Function Point Calculation</t>
+  </si>
+  <si>
+    <t>Calculated time (hours)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -232,17 +245,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,7 +347,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="de-DE"/>
               <a:t>FP Calculation</a:t>
             </a:r>
           </a:p>
@@ -367,19 +391,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -401,7 +414,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="5"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="7"/>
@@ -418,7 +431,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                <c16:uniqueId val="{00000004-6B6E-4734-A8A2-63B2A18CDCA3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -440,7 +453,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                <c16:uniqueId val="{00000007-6B6E-4734-A8A2-63B2A18CDCA3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -462,7 +475,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                <c16:uniqueId val="{00000006-6B6E-4734-A8A2-63B2A18CDCA3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -484,7 +497,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                <c16:uniqueId val="{00000008-6B6E-4734-A8A2-63B2A18CDCA3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -496,7 +509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F2BE644-DE5D-48A5-843B-FC4565F96A85}" type="CELLRANGE">
+                    <a:fld id="{7445A5FC-6FB4-4E58-AAB4-08C0CF240C4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -505,7 +518,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -518,7 +530,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{00000009-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -529,7 +541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32AA5651-6827-40E9-A749-F2D132AF2E80}" type="CELLRANGE">
+                    <a:fld id="{82C386F1-3902-4C90-9561-A664D45D43BF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -538,7 +550,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -552,7 +563,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{0000000A-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -563,7 +574,39 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0A1762A-9BE1-4F13-A1EF-7118C19F1A84}" type="CELLRANGE">
+                    <a:fld id="{02A27600-D395-46C1-8A8D-A0F7AE9F4888}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6B6E-4734-A8A2-63B2A18CDCA3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B7F22405-6B4E-4DA6-8B35-4A9F408C2BD6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -572,7 +615,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -586,46 +628,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-17BE-4F2E-9C74-D4E7BD3634BC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1120894973502133E-16"/>
-                  <c:y val="5.5771260542469871E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4AFBD701-6DA0-4249-BA77-98065A367962}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{0000000B-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -636,7 +639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8CE47FC-0DE8-4879-A39C-AF4DC4EB6931}" type="CELLRANGE">
+                    <a:fld id="{9891C29B-44AB-44DF-B2EA-95D5D4E8F499}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -645,7 +648,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -659,7 +661,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{0000000C-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -670,35 +672,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:r>
+                    <a:fld id="{39F19A88-6D14-488B-9B92-E294E890C494}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
-                      <a:t>Visit </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>About</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> Menu</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{00000004-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -709,7 +704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41C260FC-EC6E-4169-A86F-A52A5653C72E}" type="CELLRANGE">
+                    <a:fld id="{5564AA88-B578-48A0-92D2-DED4522FE2E1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -718,7 +713,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -732,7 +726,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{00000007-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -743,7 +737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A38D87E-7277-4016-84A2-14955EAD8EB3}" type="CELLRANGE">
+                    <a:fld id="{74210EDF-D2ED-4C08-BA86-82BBD49CBB12}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -752,7 +746,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -766,7 +759,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{00000006-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -777,47 +770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1E558B0-BEFE-4B2B-B224-A4E2C9FAF976}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-17BE-4F2E-9C74-D4E7BD3634BC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.9224295438391464E-3"/>
-                  <c:y val="4.4827389181818521E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{25E9A224-EA89-4ADB-95D7-854EBFE1AE70}" type="CELLRANGE">
+                    <a:fld id="{D217D099-E064-4141-B176-DBDE46417B56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -826,7 +779,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -839,7 +792,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+                  <c16:uniqueId val="{00000008-6B6E-4734-A8A2-63B2A18CDCA3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -851,13 +804,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -872,7 +825,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -917,77 +869,71 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$8:$G$17</c:f>
+              <c:f>(Tabelle1!$G$8:$G$12,Tabelle1!$G$17:$G$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18.45</c:v>
+                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8000000000000003</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.95</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>38.87426383981154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.7</c:v>
+                  <c:v>8.0144287396937575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>11.312426383981153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>4.9520023557126009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$8:$H$17</c:f>
+              <c:f>(Tabelle1!$H$8:$H$12,Tabelle1!$H$17:$H$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.9</c:v>
+                  <c:v>9.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.36</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11.52</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>9.36</c:v>
                 </c:pt>
               </c:numCache>
@@ -997,44 +943,41 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Tabelle1!$A$8:$A$17</c15:f>
+                <c15:f>(Tabelle1!$A$8:$A$12,Tabelle1!$A$17:$A$20)</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>Change Settings</c:v>
+                    <c:v>Enable LEDs</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enable LEDs</c:v>
+                    <c:v>Manage Plants</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Manage Plants</c:v>
+                    <c:v>Connect App to Pi via Bluetooth</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Connect App to Pi via Bluetooth</c:v>
+                    <c:v>Help Menu</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Help Menu</c:v>
+                    <c:v>About Menu</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>About Menu</c:v>
+                    <c:v>Show humidity diagram </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Show humidity diagram </c:v>
+                    <c:v>Request humidity level</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Request humidity level</c:v>
+                    <c:v>Manage Plants (Rework)</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Manage Plants (Rework)</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>Enable Alarm</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17BE-4F2E-9C74-D4E7BD3634BC}"/>
+              <c16:uniqueId val="{00000000-6B6E-4734-A8A2-63B2A18CDCA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1046,11 +989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="597055944"/>
-        <c:axId val="597053976"/>
+        <c:axId val="212151112"/>
+        <c:axId val="212155376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="597055944"/>
+        <c:axId val="212151112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,15 +1015,34 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time spent (hours)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in h</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1095,7 +1057,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1148,12 +1110,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597053976"/>
+        <c:crossAx val="212155376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597053976"/>
+        <c:axId val="212155376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,15 +1137,29 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>FP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1198,7 +1174,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1251,7 +1227,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597055944"/>
+        <c:crossAx val="212151112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1295,7 +1271,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1861,22 +1837,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>188136</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3328147</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47014</xdr:rowOff>
+      <xdr:colOff>4748893</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4914A3D-F2DD-4C2B-8B27-84C58FA2D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17F888E-7F5E-4DFF-95BE-FC09449C8BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,203 +2173,228 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>30</v>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10.25</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ref="G7:G12" si="0">B7+C7+D7</f>
+        <v>18.45</v>
+      </c>
+      <c r="H7" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="14">
         <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14">
-        <v>10.25</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
       </c>
       <c r="F8" s="14">
         <v>0</v>
       </c>
-      <c r="G8" s="15">
-        <f t="shared" ref="G8:G17" si="0">B8+C8+D8</f>
-        <v>18.45</v>
-      </c>
-      <c r="H8" s="15">
-        <v>3.9</v>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>5.45</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9.36</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2.25</v>
-      </c>
-      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="15">
         <v>0.2</v>
       </c>
       <c r="E9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>5.45</v>
-      </c>
-      <c r="H9" s="15">
-        <v>9.36</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H9" s="19">
         <v>11.52</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B10" s="15">
         <v>2.5</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C10" s="15">
         <v>28.25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D10" s="15">
         <v>0.2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>30.95</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H10" s="19">
         <v>16.899999999999999</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H11" s="19">
+        <v>15.84</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16">
-        <v>6.5</v>
-      </c>
-      <c r="D12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.2</v>
       </c>
       <c r="E12" s="14">
@@ -2402,164 +2403,168 @@
       <c r="F12" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="15">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H12" s="15">
-        <v>15.84</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H12" s="19">
         <v>2.16</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="C14" s="14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="0"/>
-        <v>15.7</v>
-      </c>
-      <c r="H14" s="15">
-        <v>20.88</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="H15" s="15">
-        <v>10.4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>22</v>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <f>(H17-7.6783)/0.3396</f>
+        <v>38.87426383981154</v>
+      </c>
+      <c r="H17" s="16">
+        <v>20.88</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" ref="G18:G20" si="1">(H18-7.6783)/0.3396</f>
+        <v>8.0144287396937575</v>
+      </c>
+      <c r="H18" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="14">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14">
         <v>2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
-      <c r="G16" s="15">
-        <f t="shared" si="0"/>
-        <v>17.7</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
+        <v>11.312426383981153</v>
+      </c>
+      <c r="H19" s="16">
         <v>11.52</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="C17" s="17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="B20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="18">
         <v>1</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F20" s="18">
         <v>0</v>
       </c>
-      <c r="G17" s="15">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
+        <v>4.9520023557126009</v>
+      </c>
+      <c r="H20" s="16">
         <v>9.36</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2568,7 +2573,7 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Function Points Calculation/TimeSpentUC.xlsx
+++ b/Function Points Calculation/TimeSpentUC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\WaterMe\Function Points Calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulg\Documents\GitHub\WaterMe\Function Points Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14373" windowHeight="4993"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>UC</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Calculated time</t>
+  </si>
+  <si>
+    <t>Real time spent</t>
   </si>
 </sst>
 </file>
@@ -246,9 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +270,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7445A5FC-6FB4-4E58-AAB4-08C0CF240C4E}" type="CELLRANGE">
+                    <a:fld id="{2685737C-7B68-44CF-9D74-B22E2D688812}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -541,7 +547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82C386F1-3902-4C90-9561-A664D45D43BF}" type="CELLRANGE">
+                    <a:fld id="{E3586012-6112-4613-A061-D0AB41349D5B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -606,7 +612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7F22405-6B4E-4DA6-8B35-4A9F408C2BD6}" type="CELLRANGE">
+                    <a:fld id="{E0B5A4C9-4DCF-4BFF-88F0-CDBDAD79B7BA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -639,7 +645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9891C29B-44AB-44DF-B2EA-95D5D4E8F499}" type="CELLRANGE">
+                    <a:fld id="{41F5EE33-CEAD-445D-9334-74AB3AA3BA27}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -704,7 +710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5564AA88-B578-48A0-92D2-DED4522FE2E1}" type="CELLRANGE">
+                    <a:fld id="{2AC86213-8314-4735-B054-D78083EE2F6E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -737,7 +743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74210EDF-D2ED-4C08-BA86-82BBD49CBB12}" type="CELLRANGE">
+                    <a:fld id="{F87B3569-1C56-422A-8714-B2515E602E6E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -770,7 +776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D217D099-E064-4141-B176-DBDE46417B56}" type="CELLRANGE">
+                    <a:fld id="{5781305A-5E6F-4EC7-83F7-11375CDD4ED2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2173,41 +2179,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F55:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41015625" customWidth="1"/>
+    <col min="4" max="4" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.29296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.41015625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:9" ht="25.7" x14ac:dyDescent="0.85">
+      <c r="C1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,190 +2242,190 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>10.25</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" ref="G7:G12" si="0">B7+C7+D7</f>
         <v>18.45</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>3.9</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>2.25</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>5.45</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>9.36</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>1.6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>11.52</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>2.5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>28.25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0.2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16">
+      <c r="F10" s="13"/>
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>30.95</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>16.899999999999999</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>6.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>15.84</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0.2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>2.16</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -2448,125 +2454,170 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>(H17-7.6783)/0.3396</f>
         <v>38.87426383981154</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>20.88</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="43" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f t="shared" ref="G18:G20" si="1">(H18-7.6783)/0.3396</f>
         <v>8.0144287396937575</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>10.4</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
         <v>11.312426383981153</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>11.52</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>1</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f t="shared" si="1"/>
         <v>4.9520023557126009</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>9.36</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
